--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>976245.8202509264</v>
+        <v>973768.6675818338</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673438</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,16 +665,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>332.314780958475</v>
+        <v>381.4859536980655</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>81.21182540108268</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>214.0435052866022</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,19 +896,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>407.8895948559962</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>104.6737263919352</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>32.8588137376077</v>
       </c>
       <c r="W7" t="n">
-        <v>284.0654690532699</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>173.6076827274348</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1190,13 +1190,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>270.5139490778472</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>131.3542190999261</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>222.1526784153806</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>276.0830593329762</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4296912136494</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806772</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238018</v>
+        <v>22.60777203238027</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>97.97552699114102</v>
       </c>
       <c r="T11" t="n">
         <v>201.7640893793779</v>
@@ -1433,10 +1433,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>64.75632599330856</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458123</v>
+        <v>87.05432226458124</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035181</v>
+        <v>9.753166794035238</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.2535382468619</v>
+        <v>123.253538246862</v>
       </c>
       <c r="T12" t="n">
         <v>189.655441187015</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>45.50469899506379</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>124.1004521009517</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8050985482227</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400678</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.00824149146339</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.9226570076762</v>
       </c>
       <c r="T13" t="n">
         <v>218.6059168754546</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>314.981365633718</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081966</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1664,7 +1664,7 @@
         <v>250.9088959876463</v>
       </c>
       <c r="V14" t="n">
-        <v>277.4607323328423</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>136.0642317287623</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>86.27179222793495</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440905</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560521</v>
       </c>
     </row>
     <row r="18">
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>82.47290449300718</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2239,16 +2239,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>21.63824106825043</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>22.65115569188732</v>
+        <v>146.4339626465682</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2476,19 +2476,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>101.6969570046969</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189153</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2612,7 +2612,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701359</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740345</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>140.3829797864967</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881295</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046969</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>88.86833396296501</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187857</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>99.97427419833487</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703272</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.022230457617</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703303</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206838</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>34.22340015155972</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,7 +3667,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>0.8253826161912485</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>99.97427419833781</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428217</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>83.06560892428179</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428223</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>777.9561815953474</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="C2" t="n">
-        <v>777.9561815953474</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="D2" t="n">
-        <v>777.9561815953474</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E2" t="n">
-        <v>777.9561815953474</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F2" t="n">
-        <v>771.0106808461439</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
         <v>51.24678656800311</v>
@@ -4328,10 +4328,10 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
         <v>795.7553530872915</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>2184.059060190806</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V2" t="n">
-        <v>1852.996172847235</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="W2" t="n">
-        <v>1500.227517577121</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="X2" t="n">
-        <v>1500.227517577121</v>
+        <v>1649.065041401329</v>
       </c>
       <c r="Y2" t="n">
-        <v>1164.556021659469</v>
+        <v>1263.725694231566</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
@@ -4410,22 +4410,22 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735141</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>1092.885047004312</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M3" t="n">
-        <v>1456.147065963532</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560478</v>
+        <v>1590.463386300792</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>937.5665200750353</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C4" t="n">
-        <v>768.6303371471284</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V4" t="n">
-        <v>1381.76163186861</v>
+        <v>743.1050005787336</v>
       </c>
       <c r="W4" t="n">
-        <v>1381.76163186861</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="X4" t="n">
-        <v>1153.772080970593</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y4" t="n">
-        <v>937.5665200750353</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1959.379186075721</v>
+        <v>1569.101759311879</v>
       </c>
       <c r="C5" t="n">
-        <v>1590.416669135309</v>
+        <v>1569.101759311879</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1210.836060705129</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>825.0478081068845</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>818.1023073576811</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4562,16 +4562,16 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001388</v>
@@ -4580,37 +4580,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136265</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V5" t="n">
-        <v>3109.584116376734</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="W5" t="n">
-        <v>3109.584116376734</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="X5" t="n">
-        <v>2736.118358115654</v>
+        <v>2345.840931351813</v>
       </c>
       <c r="Y5" t="n">
-        <v>2345.979026139843</v>
+        <v>1955.701599376001</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>533.4780323548191</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="C7" t="n">
-        <v>364.5418494269122</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D7" t="n">
-        <v>214.4252100145765</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218339</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.6347488791189</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1705.527932658018</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1705.527932658018</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1450.843444452132</v>
+        <v>1101.718003420938</v>
       </c>
       <c r="W7" t="n">
-        <v>1163.908627226606</v>
+        <v>812.300833383977</v>
       </c>
       <c r="X7" t="n">
-        <v>935.919076328589</v>
+        <v>584.3112824859596</v>
       </c>
       <c r="Y7" t="n">
-        <v>715.1264971850588</v>
+        <v>363.5187033424295</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1853.982617026598</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="C8" t="n">
-        <v>1853.982617026598</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1495.716918419848</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>1109.928665821603</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F8" t="n">
-        <v>698.9427610319958</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>283.8703108769923</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4802,19 +4802,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4838,16 +4838,16 @@
         <v>2961.784676410102</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066532</v>
+        <v>2688.538263200155</v>
       </c>
       <c r="W8" t="n">
-        <v>2630.721789066532</v>
+        <v>2335.769607930041</v>
       </c>
       <c r="X8" t="n">
-        <v>2630.721789066532</v>
+        <v>1962.303849668961</v>
       </c>
       <c r="Y8" t="n">
-        <v>2240.58245709072</v>
+        <v>1572.164517693149</v>
       </c>
     </row>
     <row r="9">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>980.7518458718754</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C10" t="n">
-        <v>811.8156629439685</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D10" t="n">
-        <v>661.6990235316327</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>513.7859299492396</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>366.8959824513292</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>199.1931458260482</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218342</v>
@@ -4987,25 +4987,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845645</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X10" t="n">
-        <v>1383.192889845645</v>
+        <v>456.2408785036205</v>
       </c>
       <c r="Y10" t="n">
-        <v>1162.400310702115</v>
+        <v>235.4482993600903</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2332.418671408905</v>
+        <v>1535.258832689351</v>
       </c>
       <c r="C11" t="n">
-        <v>1963.456154468494</v>
+        <v>1256.387055585335</v>
       </c>
       <c r="D11" t="n">
-        <v>1605.190455861743</v>
+        <v>898.1213569785843</v>
       </c>
       <c r="E11" t="n">
-        <v>1219.402203263499</v>
+        <v>512.33310438034</v>
       </c>
       <c r="F11" t="n">
-        <v>808.4162984738914</v>
+        <v>101.3471995907325</v>
       </c>
       <c r="G11" t="n">
-        <v>393.8408528035377</v>
+        <v>101.3471995907325</v>
       </c>
       <c r="H11" t="n">
         <v>101.3471995907325</v>
       </c>
       <c r="I11" t="n">
-        <v>78.5110662246919</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="J11" t="n">
         <v>308.7333971386838</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420328</v>
+        <v>704.5155104420337</v>
       </c>
       <c r="L11" t="n">
         <v>1232.419981301226</v>
@@ -5051,40 +5051,40 @@
         <v>1851.484858878111</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765427</v>
+        <v>2485.180661765426</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687104</v>
+        <v>3070.226377687102</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856286</v>
+        <v>3535.048359856284</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882245</v>
+        <v>3835.937563882242</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234595</v>
+        <v>3925.553311234592</v>
       </c>
       <c r="S11" t="n">
-        <v>3925.553311234595</v>
+        <v>3826.588132455662</v>
       </c>
       <c r="T11" t="n">
-        <v>3721.751200750375</v>
+        <v>3622.786021971442</v>
       </c>
       <c r="U11" t="n">
-        <v>3468.260484382984</v>
+        <v>3369.29530560405</v>
       </c>
       <c r="V11" t="n">
-        <v>3137.197597039413</v>
+        <v>3038.232418260479</v>
       </c>
       <c r="W11" t="n">
-        <v>2784.428941769298</v>
+        <v>2685.463762990365</v>
       </c>
       <c r="X11" t="n">
-        <v>2719.018511473027</v>
+        <v>2311.998004729285</v>
       </c>
       <c r="Y11" t="n">
-        <v>2719.018511473027</v>
+        <v>1921.858672753473</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>88.36274985503047</v>
       </c>
       <c r="I12" t="n">
-        <v>78.5110662246919</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="J12" t="n">
-        <v>78.5110662246919</v>
+        <v>196.8120623792129</v>
       </c>
       <c r="K12" t="n">
-        <v>358.8611360831296</v>
+        <v>477.1621322376503</v>
       </c>
       <c r="L12" t="n">
-        <v>782.1489435104395</v>
+        <v>900.4499396649599</v>
       </c>
       <c r="M12" t="n">
-        <v>1295.462717754329</v>
+        <v>1413.763713908849</v>
       </c>
       <c r="N12" t="n">
-        <v>1836.771025105396</v>
+        <v>1955.072021259916</v>
       </c>
       <c r="O12" t="n">
-        <v>2309.742577971146</v>
+        <v>1991.670362601623</v>
       </c>
       <c r="P12" t="n">
-        <v>2558.889669173201</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>835.1456997358065</v>
+        <v>203.8650582458552</v>
       </c>
       <c r="C13" t="n">
-        <v>835.1456997358065</v>
+        <v>203.8650582458552</v>
       </c>
       <c r="D13" t="n">
-        <v>685.0290603234707</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="E13" t="n">
-        <v>537.1159667410776</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="F13" t="n">
-        <v>390.2260192431672</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="G13" t="n">
-        <v>222.7461217197099</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="H13" t="n">
-        <v>78.5110662246919</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="I13" t="n">
-        <v>78.5110662246919</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600401</v>
+        <v>139.08183346004</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457706</v>
+        <v>368.4550473457704</v>
       </c>
       <c r="L13" t="n">
-        <v>717.500225288892</v>
+        <v>717.5002252888917</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779222</v>
+        <v>1095.908548779221</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542994</v>
+        <v>1470.753784542993</v>
       </c>
       <c r="O13" t="n">
         <v>1800.967734715849</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082522</v>
+        <v>2060.002133082521</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551106</v>
+        <v>2155.909043551104</v>
       </c>
       <c r="R13" t="n">
-        <v>2155.909043551106</v>
+        <v>2076.102739014273</v>
       </c>
       <c r="S13" t="n">
-        <v>2155.909043551106</v>
+        <v>1888.302075370155</v>
       </c>
       <c r="T13" t="n">
-        <v>1935.094986101152</v>
+        <v>1667.488017920201</v>
       </c>
       <c r="U13" t="n">
-        <v>1646.00427954144</v>
+        <v>1378.39731136049</v>
       </c>
       <c r="V13" t="n">
-        <v>1391.319791335553</v>
+        <v>1123.712823154603</v>
       </c>
       <c r="W13" t="n">
-        <v>1101.902621298593</v>
+        <v>834.2956531176424</v>
       </c>
       <c r="X13" t="n">
-        <v>1101.902621298593</v>
+        <v>606.306102219625</v>
       </c>
       <c r="Y13" t="n">
-        <v>881.1100421550624</v>
+        <v>385.5135230760949</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C14" t="n">
         <v>1948.261951965432</v>
       </c>
       <c r="D14" t="n">
-        <v>1589.996253358681</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E14" t="n">
         <v>1204.208000760437</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2220959708297</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872364</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251932</v>
+        <v>372.3074987251948</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128749</v>
+        <v>841.9378825128774</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018653</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957688</v>
+        <v>2182.462224957691</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874794</v>
+        <v>2919.747202874796</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333932</v>
+        <v>3602.609239333935</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021279</v>
+        <v>4150.915188021283</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127286</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304024</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070873</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750192</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U14" t="n">
-        <v>4100.461420469741</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="15">
@@ -5343,37 +5343,37 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608048</v>
+        <v>93.85065580060315</v>
       </c>
       <c r="J15" t="n">
-        <v>240.4596049779263</v>
+        <v>241.4986375524491</v>
       </c>
       <c r="K15" t="n">
-        <v>240.4596049779263</v>
+        <v>572.0073801158079</v>
       </c>
       <c r="L15" t="n">
-        <v>240.4596049779263</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M15" t="n">
-        <v>832.4779592300539</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="N15" t="n">
-        <v>1454.57392262939</v>
+        <v>1355.754362358723</v>
       </c>
       <c r="O15" t="n">
-        <v>2001.450397629584</v>
+        <v>1902.630837358917</v>
       </c>
       <c r="P15" t="n">
-        <v>2421.03391605566</v>
+        <v>2322.214355784993</v>
       </c>
       <c r="Q15" t="n">
         <v>2552.77562977024</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>789.2983722470399</v>
+        <v>494.0589900220737</v>
       </c>
       <c r="C16" t="n">
-        <v>620.362189319133</v>
+        <v>494.0589900220737</v>
       </c>
       <c r="D16" t="n">
-        <v>470.2455499067972</v>
+        <v>494.0589900220737</v>
       </c>
       <c r="E16" t="n">
-        <v>322.3324563244041</v>
+        <v>406.9157655494121</v>
       </c>
       <c r="F16" t="n">
-        <v>175.4425088264938</v>
+        <v>260.0258180515017</v>
       </c>
       <c r="G16" t="n">
-        <v>175.4425088264938</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="H16" t="n">
-        <v>175.4425088264938</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J16" t="n">
         <v>171.7937461156341</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861978</v>
+        <v>431.4224730861984</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693319</v>
+        <v>819.1842911693323</v>
       </c>
       <c r="M16" t="n">
         <v>1238.413883213791</v>
@@ -5449,37 +5449,37 @@
         <v>1653.109749005498</v>
       </c>
       <c r="O16" t="n">
-        <v>2020.132206020527</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856732</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410167</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.375774410167</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S16" t="n">
-        <v>2428.375774410167</v>
+        <v>2177.3462391076</v>
       </c>
       <c r="T16" t="n">
-        <v>2208.696992124549</v>
+        <v>1957.667456821982</v>
       </c>
       <c r="U16" t="n">
-        <v>1919.620778439275</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>1664.936290233388</v>
+        <v>1413.906754930822</v>
       </c>
       <c r="W16" t="n">
-        <v>1375.519120196428</v>
+        <v>1124.489584893861</v>
       </c>
       <c r="X16" t="n">
-        <v>1147.52956929841</v>
+        <v>896.5000339958435</v>
       </c>
       <c r="Y16" t="n">
-        <v>926.7369901548803</v>
+        <v>675.7074548523134</v>
       </c>
     </row>
     <row r="17">
@@ -5513,10 +5513,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,10 +5525,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5546,16 +5546,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327638</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C19" t="n">
-        <v>680.4481746984131</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D19" t="n">
-        <v>530.3315352860774</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036843</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630036</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="20">
@@ -5756,22 +5756,22 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5826,19 +5826,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
         <v>1767.889897446606</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.899304487669</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>580.899304487669</v>
+        <v>559.0424953278199</v>
       </c>
       <c r="D22" t="n">
-        <v>430.7826650753332</v>
+        <v>408.9258559154841</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
         <v>261.0127623330919</v>
@@ -5911,28 +5911,28 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
         <v>2264.108249235165</v>
@@ -5950,10 +5950,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614389</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179088</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5981,7 +5981,7 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
@@ -5993,16 +5993,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,25 +6063,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P24" t="n">
         <v>2516.421633107662</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.853600740071</v>
+        <v>560.7825789706073</v>
       </c>
       <c r="C25" t="n">
-        <v>411.1294017454277</v>
+        <v>391.8463960427005</v>
       </c>
       <c r="D25" t="n">
-        <v>261.0127623330919</v>
+        <v>241.7297566303648</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832662</v>
+        <v>2426.846358063198</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718103</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741044</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138409</v>
+        <v>963.2236229443772</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703107</v>
+        <v>742.4310438008471</v>
       </c>
     </row>
     <row r="26">
@@ -6212,52 +6212,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479719</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123002</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,43 +6358,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356189</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232833</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408903</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>484.81129684298</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
         <v>2035.089393279802</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2238.116390149333</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2018.514925172274</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2018.514925172274</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093765</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="29">
@@ -6452,46 +6452,46 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L30" t="n">
-        <v>315.9123021921476</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>913.2907898186995</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373306</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.580456911439</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C31" t="n">
-        <v>847.6442739835323</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711966</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888036</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908934</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6625,46 +6625,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2290.151385930678</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2070.549920953619</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1781.474694297817</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V31" t="n">
-        <v>1526.79020609193</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W31" t="n">
-        <v>1237.373036054969</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1237.373036054969</v>
+        <v>916.2946447138404</v>
       </c>
       <c r="Y31" t="n">
-        <v>1016.580456911439</v>
+        <v>695.5020655703103</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6674,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6725,25 +6725,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>315.9123021921476</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>913.2907898186995</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373306</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400678</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121609</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998253</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998253</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121644</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038313</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797715</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910806</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853358</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.91737983266</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510505</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854703</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648816</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138377</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703075</v>
       </c>
     </row>
     <row r="35">
@@ -6926,43 +6926,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075824</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245705</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400749</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C37" t="n">
-        <v>344.917417812168</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D37" t="n">
-        <v>344.917417812168</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E37" t="n">
-        <v>344.917417812168</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>344.917417812168</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7099,46 +7099,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580264</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832666</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487571</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510512</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.38585385471</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648823</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611862</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138447</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703146</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7163,58 +7163,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>727.9786782557278</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C40" t="n">
-        <v>559.0424953278209</v>
+        <v>411.9631215597622</v>
       </c>
       <c r="D40" t="n">
-        <v>408.9258559154852</v>
+        <v>261.8464821474263</v>
       </c>
       <c r="E40" t="n">
-        <v>261.012762333092</v>
+        <v>261.8464821474263</v>
       </c>
       <c r="F40" t="n">
-        <v>261.012762333092</v>
+        <v>261.8464821474263</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797189</v>
+        <v>94.65038286230647</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>94.65038286230647</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
         <v>826.1405381797745</v>
@@ -7342,7 +7342,7 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
         <v>2035.089393279803</v>
@@ -7403,16 +7403,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,16 +7421,16 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2529.355041543135</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121644</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270448</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7570,10 +7570,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7585,13 +7585,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
         <v>2197.062545487567</v>
@@ -7609,10 +7609,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="44">
@@ -7643,28 +7643,28 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192412</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7728,25 +7728,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>119.2902967703784</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969303</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7789,13 +7789,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121644</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7807,7 +7807,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
         <v>826.1405381797745</v>
@@ -7819,7 +7819,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
@@ -8058,25 +8058,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>240.446544241744</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>45.44676101130813</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>89.18983243803137</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,10 +23270,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.5687166806773</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114097</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>304.9747746851605</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>134.3272811868735</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>24.51502091726067</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034035</v>
+        <v>89.71507747034039</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146334</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>50.29152613728951</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>50.29152613729258</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>43.76774845317502</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>60.16217041863422</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108359</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>84.77391660562066</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>45.44677382459295</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292274</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24127,16 +24127,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>145.6085800303774</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>123.7828069546818</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24221,7 +24221,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24364,19 +24364,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>65.54986409393098</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.45968844823016</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>45.44677382459334</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,16 +24649,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>40.64330621514773</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>65.54986409393098</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>92.1579520386796</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459638</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194169</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823088</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392193859</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>145.6085800303776</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,7 +25555,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.294712846221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>80.44045370237427</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459344</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26029,7 +26029,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>63.36835372228738</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194171</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>893616.4462668309</v>
+        <v>893616.4462668308</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>972364.885440822</v>
+        <v>972364.8854408222</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>977725.0791031924</v>
+        <v>977725.0791031922</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>977725.0791031924</v>
+        <v>977725.0791031923</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>977725.0791031924</v>
+        <v>977725.0791031923</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>977725.0791031924</v>
+        <v>977725.0791031922</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>977725.0791031924</v>
+        <v>977725.0791031923</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>977725.0791031924</v>
+        <v>977725.0791031923</v>
       </c>
     </row>
     <row r="16">
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>451572.973425356</v>
+      </c>
+      <c r="C2" t="n">
         <v>451572.9734253558</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>451572.9734253559</v>
       </c>
-      <c r="D2" t="n">
-        <v>451572.9734253557</v>
-      </c>
       <c r="E2" t="n">
-        <v>405380.8397795043</v>
+        <v>405380.8397795042</v>
       </c>
       <c r="F2" t="n">
-        <v>441473.874400917</v>
+        <v>441473.8744009171</v>
       </c>
       <c r="G2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295033</v>
       </c>
       <c r="H2" t="n">
         <v>443930.6298295035</v>
       </c>
       <c r="I2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295033</v>
       </c>
       <c r="J2" t="n">
         <v>443930.6298295035</v>
       </c>
       <c r="K2" t="n">
-        <v>443930.6298295034</v>
+        <v>443930.6298295033</v>
       </c>
       <c r="L2" t="n">
         <v>443930.6298295034</v>
@@ -26347,13 +26347,13 @@
         <v>443930.6298295035</v>
       </c>
       <c r="N2" t="n">
-        <v>443930.6298295036</v>
+        <v>443930.6298295035</v>
       </c>
       <c r="O2" t="n">
         <v>443930.6298295035</v>
       </c>
       <c r="P2" t="n">
-        <v>443930.6298295034</v>
+        <v>443930.6298295033</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>143114.1392185166</v>
+        <v>143114.1392185159</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051368</v>
+        <v>166521.3471051381</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557934</v>
+        <v>11167.23623557892</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099828</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605439</v>
+        <v>49110.09270605445</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>37377.32855115361</v>
+        <v>37377.32855115347</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848876</v>
+        <v>43782.4065584893</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224748</v>
+        <v>3023.297977224429</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,16 +26418,16 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312026</v>
+        <v>89134.17909312021</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312018</v>
+        <v>89134.17909312021</v>
       </c>
       <c r="E4" t="n">
         <v>9848.023364462855</v>
       </c>
       <c r="F4" t="n">
-        <v>9940.611700543544</v>
+        <v>9940.611700543546</v>
       </c>
       <c r="G4" t="n">
         <v>9947.144321768897</v>
@@ -26436,22 +26436,22 @@
         <v>9947.144321768897</v>
       </c>
       <c r="I4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768899</v>
       </c>
       <c r="J4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768908</v>
       </c>
       <c r="L4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="M4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="N4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="O4" t="n">
         <v>9947.144321768897</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214718</v>
+        <v>86093.72216214713</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26522,46 +26522,46 @@
         <v>-894046.9929976305</v>
       </c>
       <c r="C6" t="n">
-        <v>51066.1121587368</v>
+        <v>51066.11215873672</v>
       </c>
       <c r="D6" t="n">
-        <v>254504.853770842</v>
+        <v>254504.8537708423</v>
       </c>
       <c r="E6" t="n">
-        <v>166324.9550343777</v>
+        <v>166114.9907905336</v>
       </c>
       <c r="F6" t="n">
-        <v>164869.7870813983</v>
+        <v>164823.8820858314</v>
       </c>
       <c r="G6" t="n">
-        <v>321693.7194482482</v>
+        <v>321658.9815228127</v>
       </c>
       <c r="H6" t="n">
-        <v>332860.9556838275</v>
+        <v>332826.217758392</v>
       </c>
       <c r="I6" t="n">
-        <v>332860.9556838275</v>
+        <v>332826.2177583916</v>
       </c>
       <c r="J6" t="n">
-        <v>165255.7778738447</v>
+        <v>165221.0399484092</v>
       </c>
       <c r="K6" t="n">
-        <v>283750.862977773</v>
+        <v>283716.1250523371</v>
       </c>
       <c r="L6" t="n">
-        <v>332860.9556838274</v>
+        <v>332826.2177583917</v>
       </c>
       <c r="M6" t="n">
-        <v>295483.6271326739</v>
+        <v>295448.8892072383</v>
       </c>
       <c r="N6" t="n">
-        <v>289078.5491253388</v>
+        <v>289043.8111999024</v>
       </c>
       <c r="O6" t="n">
-        <v>329837.6577066027</v>
+        <v>329802.9197811673</v>
       </c>
       <c r="P6" t="n">
-        <v>332860.9556838274</v>
+        <v>332826.2177583916</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26744,10 +26744,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494557</v>
+        <v>1212.170267494556</v>
       </c>
       <c r="F3" t="n">
-        <v>1358.041048716385</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26790,16 +26790,16 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086488</v>
+        <v>981.3883278086481</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26811,19 +26811,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757589</v>
+        <v>155.7118084757587</v>
       </c>
       <c r="D3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>122.3935669012583</v>
+        <v>122.3935669012576</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218288</v>
+        <v>145.8707812218299</v>
       </c>
       <c r="G3" t="n">
-        <v>9.934451625288375</v>
+        <v>9.934451625288148</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26981,19 +26981,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27012,19 +27012,19 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>149.986872406356</v>
+        <v>149.9868724063555</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173572</v>
+        <v>178.7569625173588</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,22 +27033,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063563</v>
+        <v>149.9868724063557</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173572</v>
+        <v>178.7569625173588</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364211</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27258,19 +27258,19 @@
         <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.986872406356</v>
+        <v>149.9868724063555</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173572</v>
+        <v>178.7569625173588</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,19 +27385,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>53.92315769757857</v>
+        <v>4.751984957988043</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>170.9258179227453</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.541148065492564</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,19 +27616,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>3.032130797457228</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>223.0785320781997</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>219.2788295862203</v>
       </c>
       <c r="W7" t="n">
-        <v>2.457529283321094</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27865,10 +27865,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>121.0000816598857</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27910,13 +27910,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>57.2383093922877</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>13.40079581439466</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28059,13 +28059,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>3.556976973656589</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1.539137326801951e-12</v>
       </c>
     </row>
     <row r="18">
@@ -28734,7 +28734,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>-2.821700444395419e-12</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -28965,7 +28965,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>9.426533627750662e-13</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2.344791028008331e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>8.74074681980264e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29931,7 +29931,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>-6.159093390701584e-13</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-2.810895336081952e-13</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30180,7 +30180,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>3.215385309298231e-12</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-1.557513963650944e-13</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30396,7 +30396,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>2.799680487441947e-12</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31054,16 +31054,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31075,7 +31075,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31124,7 +31124,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31136,16 +31136,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31230,7 +31230,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31239,7 +31239,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485651</v>
+        <v>4.873046301485648</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508993</v>
+        <v>49.90608543508991</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380257</v>
+        <v>187.8681175380256</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307182</v>
+        <v>413.5937135307179</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726059</v>
+        <v>619.8697634726055</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216975</v>
+        <v>769.003254221697</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857429</v>
+        <v>855.6642913857424</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898391</v>
+        <v>869.5098341898387</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294411</v>
+        <v>821.0534800294406</v>
       </c>
       <c r="P11" t="n">
-        <v>700.750149461514</v>
+        <v>700.7501494615136</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.234178789559</v>
+        <v>526.2341787895587</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356983</v>
+        <v>306.1064947356981</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951044</v>
+        <v>111.0445425951043</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475345</v>
+        <v>21.33176018475343</v>
       </c>
       <c r="U11" t="n">
-        <v>0.389843704118852</v>
+        <v>0.3898437041188518</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969424</v>
+        <v>2.607309631969422</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191523</v>
+        <v>25.18112197191521</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596482</v>
+        <v>89.76921320596476</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>246.3335823783041</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202556</v>
+        <v>421.0233277202553</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256418</v>
+        <v>566.1178216256415</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845333</v>
+        <v>660.6327957845328</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147143</v>
+        <v>678.1177801147139</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431812</v>
+        <v>179.5642660017238</v>
       </c>
       <c r="P12" t="n">
-        <v>385.6381359012545</v>
+        <v>497.881784020547</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>332.8207874071845</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533296</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697589</v>
+        <v>48.42963285697586</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780658</v>
+        <v>10.50928750780657</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1715335284190411</v>
+        <v>0.171533528419041</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236085</v>
+        <v>2.185880810236084</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737175</v>
+        <v>19.43446756737174</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691794</v>
+        <v>65.73539745691789</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836912</v>
+        <v>154.5417732836911</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619742</v>
+        <v>253.9596068619741</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509177</v>
+        <v>324.9808615509175</v>
       </c>
       <c r="M13" t="n">
-        <v>342.646752826371</v>
+        <v>342.6467528263709</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973096</v>
+        <v>334.4993788973094</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050061</v>
+        <v>308.9643167050059</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761897</v>
+        <v>264.3723481761896</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.037710391678</v>
+        <v>183.0377103916779</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570615</v>
+        <v>98.28514988570609</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929613</v>
+        <v>38.09394102929611</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826908</v>
+        <v>9.339672552826903</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765139</v>
+        <v>0.1192298623765138</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377424</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122281</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830429</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364261</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293306</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229606</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O14" t="n">
-        <v>919.857844208695</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687522</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148605</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4367569201901939</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540904</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
-        <v>275.9770021735817</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M15" t="n">
-        <v>740.13237155043</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927636</v>
+        <v>427.3161054158215</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426203</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982452</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q15" t="n">
-        <v>273.0542121815567</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862159</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32145,34 +32145,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291842</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H16" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284924</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273332</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900885</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416873</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282423</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q16" t="n">
         <v>205.0641983561742</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851327</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391492</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32555,13 +32555,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>708.9385480032147</v>
       </c>
       <c r="N21" t="n">
-        <v>230.1272937575231</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32783,16 +32783,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>211.7351844430274</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,10 +32801,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>361.7519118779092</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>196.3041720119</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33263,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L30" t="n">
-        <v>362.8934092184356</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>362.8934092184356</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33968,13 +33968,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473073</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>465.217062384076</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>169.6252075171357</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34448,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>519.7862086120942</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34699,19 +34699,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34720,7 +34720,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>538.1269048795942</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>380.8714430074312</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,13 +34854,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34869,13 +34869,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040319</v>
+        <v>232.5478090040316</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276253</v>
+        <v>399.779912427625</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517103</v>
+        <v>533.2368392517099</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584702</v>
+        <v>625.3180581584697</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932483</v>
+        <v>640.0967705932478</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077543</v>
+        <v>590.9552686077539</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062444</v>
+        <v>469.5171537062441</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151095</v>
+        <v>303.9284889151091</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156615</v>
+        <v>90.52095692156598</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>119.4959557116374</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458966</v>
+        <v>283.1818887458963</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457676</v>
+        <v>427.5634418457673</v>
       </c>
       <c r="M12" t="n">
-        <v>518.498761862515</v>
+        <v>518.4987618625146</v>
       </c>
       <c r="N12" t="n">
-        <v>546.776068031381</v>
+        <v>546.7760680313806</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987368</v>
+        <v>36.96802155727939</v>
       </c>
       <c r="P12" t="n">
-        <v>251.6637284869242</v>
+        <v>363.9073766062168</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>192.839013321163</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936567</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701847</v>
+        <v>61.18259316701835</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360914</v>
+        <v>231.6901150360912</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112339</v>
+        <v>352.5708868112337</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882116</v>
+        <v>382.2306297882114</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765382</v>
+        <v>378.6315512765379</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190457</v>
+        <v>333.5494446190456</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410832</v>
+        <v>261.6509074410831</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998366</v>
+        <v>96.87566713998355</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380623</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664388</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020579</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N14" t="n">
-        <v>744.7323009263696</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870083</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134826</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.254733440411</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R14" t="n">
-        <v>127.357360784584</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J15" t="n">
-        <v>149.139375506915</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284117</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094304</v>
+        <v>295.9743933324882</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981759</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P15" t="n">
-        <v>423.821735783915</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q15" t="n">
-        <v>133.0724380955352</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066046</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642056</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L16" t="n">
-        <v>391.6786041243779</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209159</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558158</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,13 +36203,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>566.8045140811964</v>
       </c>
       <c r="N21" t="n">
-        <v>98.78558167418976</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36431,16 +36431,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,10 +36449,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>219.1556674334648</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>57.74979223202579</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L30" t="n">
-        <v>224.3390294385614</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>224.3390294385614</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.332588409632</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060487</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>500.3288951674331</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>322.6208179396315</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>23.94570355317173</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
